--- a/data/BFI_MI_1109v2.xlsx
+++ b/data/BFI_MI_1109v2.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Statistics/R.WD/Class_data/class201602/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="10620" tabRatio="500"/>
+    <workbookView xWindow="6000" yWindow="3400" windowWidth="40080" windowHeight="26820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1444,7 +1447,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1724,25 +1727,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CQ97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L37" workbookViewId="0">
-      <selection activeCell="AB55" sqref="AB55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="13" width="11.5546875" style="7"/>
+    <col min="10" max="13" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2259,7 +2262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2360,7 +2363,7 @@
       <c r="CD4" s="9"/>
       <c r="CE4" s="9"/>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3842,7 +3845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -4089,7 +4092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -4336,7 +4339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -4583,7 +4586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4830,7 +4833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -5077,7 +5080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -5425,7 +5428,7 @@
       <c r="CD17" s="9"/>
       <c r="CE17" s="9"/>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -5672,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -5919,7 +5922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -6413,7 +6416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -6660,7 +6663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -6907,7 +6910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -7401,7 +7404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -7895,7 +7898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -8389,7 +8392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -8636,7 +8639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -8883,7 +8886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -9130,7 +9133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -9377,7 +9380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -9624,7 +9627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -9871,7 +9874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -10118,7 +10121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -10365,7 +10368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -10466,7 +10469,7 @@
       <c r="CD38" s="9"/>
       <c r="CE38" s="9"/>
     </row>
-    <row r="39" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -10713,7 +10716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -10960,7 +10963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -11207,7 +11210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -11454,7 +11457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -11701,7 +11704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -11948,7 +11951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -12195,7 +12198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -12442,7 +12445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -12543,7 +12546,7 @@
       <c r="CD47" s="9"/>
       <c r="CE47" s="9"/>
     </row>
-    <row r="48" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -12790,7 +12793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -13037,7 +13040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -13284,7 +13287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -13531,7 +13534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -13790,7 +13793,7 @@
       <c r="CP52" s="11"/>
       <c r="CQ52" s="11"/>
     </row>
-    <row r="53" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -14049,7 +14052,7 @@
       <c r="CP53" s="13"/>
       <c r="CQ53" s="13"/>
     </row>
-    <row r="54" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -14162,7 +14165,7 @@
       <c r="CP54" s="11"/>
       <c r="CQ54" s="11"/>
     </row>
-    <row r="55" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -14421,7 +14424,7 @@
       <c r="CP55" s="11"/>
       <c r="CQ55" s="11"/>
     </row>
-    <row r="56" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -14680,7 +14683,7 @@
       <c r="CP56" s="11"/>
       <c r="CQ56" s="11"/>
     </row>
-    <row r="57" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -14927,7 +14930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:95" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:95" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -15174,7 +15177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -15421,7 +15424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -15668,7 +15671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -15769,7 +15772,7 @@
       <c r="CD61" s="9"/>
       <c r="CE61" s="9"/>
     </row>
-    <row r="62" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -16016,7 +16019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -16117,7 +16120,7 @@
       <c r="CD63" s="9"/>
       <c r="CE63" s="9"/>
     </row>
-    <row r="64" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -16364,7 +16367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -16611,7 +16614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -16858,7 +16861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -17105,7 +17108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -17206,7 +17209,7 @@
       <c r="CD68" s="9"/>
       <c r="CE68" s="9"/>
     </row>
-    <row r="69" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -17453,7 +17456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -17700,7 +17703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -17947,7 +17950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -18194,7 +18197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -18441,7 +18444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -18688,7 +18691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -18935,7 +18938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -19182,7 +19185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -19429,7 +19432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -19530,7 +19533,7 @@
       <c r="CD78" s="9"/>
       <c r="CE78" s="9"/>
     </row>
-    <row r="79" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -19777,7 +19780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -20024,7 +20027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -20271,7 +20274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -20518,7 +20521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -20765,7 +20768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -21012,7 +21015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -21113,7 +21116,7 @@
       <c r="CD85" s="9"/>
       <c r="CE85" s="9"/>
     </row>
-    <row r="86" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -21360,7 +21363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -21607,7 +21610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -21854,7 +21857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -22101,7 +22104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -22348,7 +22351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -22595,7 +22598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -22842,7 +22845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -23089,7 +23092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -23336,7 +23339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -23583,7 +23586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -23830,7 +23833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>95</v>
       </c>
